--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2179380.101641125</v>
+        <v>2309682.729212761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5038579.788949224</v>
+        <v>5507037.061722659</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>46.19026444475082</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>347.3423948989258</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.994099727528077</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>23.925937787683</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>177.6731094009112</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>286.1398096286851</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>193.6215014527033</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>99.28616603324218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,7 +1138,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8503807409404</v>
+        <v>102.7176563887153</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1342,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>20.56754178381383</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>4.113426043343948</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.990780565513</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673888162</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1610,22 +1612,22 @@
         <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>4.827318413219441</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633432</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>122.4914619056499</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>129.7139627068434</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131198</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864838</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2005,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2062,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>216.8805964716351</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>89.05336748755563</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9536135021265</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>187.0595157663145</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.01514676193472</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.2854798895601</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>66.04839586223956</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>103.345659457196</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.8253404203546</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>893.723271644182</v>
+        <v>1608.104601274648</v>
       </c>
       <c r="D2" t="n">
-        <v>457.8134868186265</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>428.0791460173257</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2521204669375</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>962.7013733912472</v>
+        <v>613.8890703687</v>
       </c>
       <c r="C4" t="n">
-        <v>790.1396618744722</v>
+        <v>613.8890703687</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>613.8890703687</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>1381.939662796126</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>1154.519992110234</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2223.59842635773</v>
+        <v>574.005606542894</v>
       </c>
       <c r="C5" t="n">
-        <v>1785.455953541153</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>74.25941213986519</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>674.5331706342547</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2232.589218737804</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1827.733764148838</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>1408.591300728148</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.857592802233</v>
+        <v>1000.305177027802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>431.659647297093</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>431.659647297093</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>823.9970979175606</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>651.4353864007855</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>485.5573936023082</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>315.7993898530455</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068756</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748366</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.99160825575</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413394</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639176</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609518</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434796</v>
+        <v>2326.0420552792</v>
       </c>
       <c r="U7" t="n">
-        <v>2210.968635687901</v>
+        <v>2047.609054532305</v>
       </c>
       <c r="V7" t="n">
-        <v>1924.013127558332</v>
+        <v>1760.653546402735</v>
       </c>
       <c r="W7" t="n">
-        <v>1651.986723144624</v>
+        <v>1488.627141989027</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1243.235387322439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1015.815716636548</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>668.6030377373708</v>
+        <v>648.8602641703441</v>
       </c>
       <c r="C8" t="n">
-        <v>230.4605649207941</v>
+        <v>210.7177913537674</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.186649932281</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
-        <v>1922.331195343315</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.188731922625</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1094.902608222279</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612185</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4957,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2468.626341703672</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>2190.193340956777</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.237832827208</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.211428413499</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1385.819673746912</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1356.327836278711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>918.1853634621348</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>918.1853634621348</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>484.4106186204299</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.54318902963764</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.54318902963764</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1880.509478614942</v>
+        <v>852.6195887352246</v>
       </c>
       <c r="M11" t="n">
-        <v>1880.509478614942</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N11" t="n">
-        <v>1880.509478614942</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O11" t="n">
-        <v>1880.509478614942</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2802.165007037524</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.942704354541</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2180.325754288368</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>1775.470299699401</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>1356.327836278711</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1356.327836278711</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>330.23776963034</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.801965382963</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1719.366161135586</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1719.366161135586</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>895.6667038500906</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>457.5242310335138</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>457.5242310335138</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>457.5242310335138</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335138</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677764</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677764</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677764</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5387406219837</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022719</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895758</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2502.600881895758</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2139.983931829584</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1735.128477240617</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1730.252398035345</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.966274334998</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>366.8902486565478</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677764</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857572</v>
+        <v>2595.191700773933</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436027</v>
+        <v>2349.312254352388</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689132</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559563</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766308</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5585,28 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O18" t="n">
         <v>1765.500601749588</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>864.7097725347917</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>692.1480610180166</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>526.2700682195393</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1529.339816606258</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1283.948061939671</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.528391253779</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5780,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5840,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6065,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3492.831749183365</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4429.488197668539</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4157.461793254831</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3912.070038588243</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3684.650367902352</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.773653488281</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698832</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>4648.527086152673</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>4648.527086152673</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636186</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636186</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>382.0682546095385</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1216.418546567716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2291.478512820576</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2291.478512820576</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>3417.209496257023</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1077.292364523333</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C31" t="n">
-        <v>904.7306530065579</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D31" t="n">
-        <v>738.8526602080806</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E31" t="n">
-        <v>569.0946564588178</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V31" t="n">
-        <v>2013.948813008508</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W31" t="n">
-        <v>1741.922408594799</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X31" t="n">
-        <v>1496.530653928212</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.11098324232</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3797.144401352142</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3797.144401352142</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3797.144401352142</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3486.780615022739</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>3314.218903505964</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>3148.340910707486</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>2978.582906958224</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4743.43381771779</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>4465.000816970895</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>4178.045308841326</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>3906.018904427618</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>3906.018904427618</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>3678.599233741726</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6941,10 +6943,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -6974,7 +6976,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,19 +7180,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.8255515988633</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>703.2638400820882</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>537.3858472836109</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2623.749955382047</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2377.870508960502</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U40" t="n">
-        <v>2099.437508213608</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>1812.482000084038</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1540.45559567033</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1295.063841003742</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1067.64417031785</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>925.8109293240379</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>489.9011444984824</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>56.12639965677762</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677762</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862318</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862318</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862318</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1880.509478614941</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2575.073674367564</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2637.165918085824</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2184.480730089725</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.480730089725</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2184.480730089725</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1790.252972625522</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1649.251966351365</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>1542.795505188007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>1447.705216334561</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>1353.584801661514</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.200963277676</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>1184.81587354386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>1143.080221360072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.14389452053</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>1493.702219486742</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>2148.408266112466</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>2148.408266112466</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>2148.408266112466</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.408266112466</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.408266112466</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>2689.147204744541</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>2806.319982838881</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>2742.864545287264</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>2612.685901617866</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>2436.349354617834</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>2237.231836679834</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>2051.909082413028</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>1897.041646651908</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>1770.555867431128</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>906.6224367337088</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C43" t="n">
-        <v>734.0607252169337</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D43" t="n">
-        <v>568.1827324184565</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E43" t="n">
-        <v>398.4247286691938</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F43" t="n">
-        <v>221.7176746309499</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2654.546840516893</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2408.667394095348</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2130.234393348453</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>1843.278885218884</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1571.252480805175</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X43" t="n">
-        <v>1325.860726138588</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.441055452696</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>850.5313677789976</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>412.3888949624209</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>412.3888949624209</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>412.3888949624209</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>345.6733435864214</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094007</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.254791162024</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2139.818986914646</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2139.818986914646</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2139.818986914646</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.445806339735</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.828856273562</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.973401684595</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1276.830938263905</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1276.830938263905</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>750.6905954094007</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>750.6905954094007</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>221.7176746309499</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.544640857574</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.665194436029</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1989.232193689134</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1702.276685559565</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.250281145856</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>512.4570950335008</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>385.078041118804</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986957</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>212.2804580932207</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904671</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>651.9316575406122</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>313.9028777775457</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097205</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9249,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.8392149967</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,13 +9652,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>-5.681602616057837e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>86.02274874679142</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,7 +9892,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599073</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.6337518573322</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>324.5237132641528</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>779.6755805253165</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>62.71943809925233</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,22 +11302,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11385,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097204</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>313.9028777775459</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.7531288123478</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627257</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>410.123720373263</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.15749310933337</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>139.592177662728</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>52.42554389793631</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>81.78272691405168</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142744</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36113619101479</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>84.63380825304858</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.91778257378303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>357.5403594326448</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>313842.8157193867</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>313842.8157193866</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>313842.8157193867</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>313842.8157193867</v>
+        <v>474171.825723617</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>296407.1037349764</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="F2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="G2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="H2" t="n">
+        <v>447828.9465167497</v>
+      </c>
+      <c r="I2" t="n">
         <v>447828.9465167496</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="K2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="L2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="K2" t="n">
-        <v>447828.9465167495</v>
-      </c>
-      <c r="L2" t="n">
-        <v>447828.9465167494</v>
-      </c>
-      <c r="M2" t="n">
-        <v>447828.9465167494</v>
-      </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>296407.1037349763</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501579</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998316</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045621</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877222</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622634</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340746</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113504.4062182506</v>
+        <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>113504.4062182506</v>
+        <v>121997.5637970942</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.69182688737</v>
+        <v>806.3323907825379</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873196</v>
+        <v>806.3323907825379</v>
       </c>
       <c r="G4" t="n">
-        <v>806.332390782552</v>
+        <v>806.332390782538</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825622</v>
+        <v>806.3323907825511</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907825516</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873699</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44308.59254279417</v>
+        <v>84941.03984015528</v>
       </c>
       <c r="C6" t="n">
-        <v>268008.291126839</v>
+        <v>195183.6764067349</v>
       </c>
       <c r="D6" t="n">
-        <v>268008.291126839</v>
+        <v>256480.6955768558</v>
       </c>
       <c r="E6" t="n">
-        <v>243046.3515684818</v>
+        <v>186949.2662991247</v>
       </c>
       <c r="F6" t="n">
-        <v>253217.348168938</v>
+        <v>369304.3755201743</v>
       </c>
       <c r="G6" t="n">
-        <v>211244.8985740651</v>
+        <v>369304.3755201744</v>
       </c>
       <c r="H6" t="n">
-        <v>369304.3755201745</v>
+        <v>369304.3755201746</v>
       </c>
       <c r="I6" t="n">
         <v>369304.3755201744</v>
       </c>
       <c r="J6" t="n">
-        <v>194653.0268024683</v>
+        <v>258289.9101751843</v>
       </c>
       <c r="K6" t="n">
-        <v>369304.3755201744</v>
+        <v>316258.5208814022</v>
       </c>
       <c r="L6" t="n">
-        <v>369304.3755201743</v>
+        <v>359912.0737935518</v>
       </c>
       <c r="M6" t="n">
-        <v>360815.2938168336</v>
+        <v>217104.2045821867</v>
       </c>
       <c r="N6" t="n">
-        <v>369304.3755201743</v>
+        <v>369304.3755201745</v>
       </c>
       <c r="O6" t="n">
-        <v>253217.348168938</v>
+        <v>369304.3755201745</v>
       </c>
       <c r="P6" t="n">
-        <v>253217.348168938</v>
+        <v>369304.3755201745</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939466</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186354</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939466</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186331</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483581</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939466</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186354</v>
+        <v>610.7452967768883</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>387.5707836436601</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.04145816404292</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>159.066323984242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>219.0118993322386</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>253.8775775763887</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>72.85097093682663</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>49.79915050462597</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>143.6516710866795</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>309.7003062363596</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>222.8531101735155</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.148949810994295e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28527,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-2.111370848271674e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.108936697258694e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>512.4570950335008</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>385.078041118804</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078568</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986957</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>226.6534083847599</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097204</v>
+        <v>757.9381297620657</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>212.2804580932207</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904671</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>651.9316575406122</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>313.9028777775457</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097205</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821516</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463143</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36045,7 +36047,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.8392149967</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,16 +36369,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2.268258214386391e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>86.02274874679142</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-2.703218543999784e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599073</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743907693</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.6337518573322</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>324.5237132641528</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,10 +37560,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P39" t="n">
-        <v>779.6755805253165</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>62.71943809925233</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097204</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>313.9028777775459</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2309682.729212761</v>
+        <v>2309157.546843729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.072591686</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5507037.061722659</v>
+        <v>5507037.06172266</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>46.19026444475082</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>348.8584147991471</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.994099727528077</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>152.0039538545932</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>286.1398096286851</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>34.06158462964364</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>193.6215014527033</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D8" t="n">
-        <v>102.7176563887153</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,13 +1429,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.990780565513</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>10.04027365719937</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684289</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4914619056499</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131198</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864838</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>120.1472970361153</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633428</v>
       </c>
     </row>
     <row r="21">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="32">
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>122.9742767430576</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>107.4059292302402</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,10 +3480,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556927</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>105.2234111170471</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>60.801187884122</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.104601274648</v>
+        <v>1537.007491454787</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.522927011916</v>
+        <v>1505.138110669636</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>1152.75587349878</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4339,16 +4339,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,28 +4397,28 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8890703687</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>613.8890703687</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>613.8890703687</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4530,10 +4530,10 @@
         <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.005606542894</v>
+        <v>1512.215525774046</v>
       </c>
       <c r="C5" t="n">
-        <v>135.8631337263174</v>
+        <v>1074.073052957469</v>
       </c>
       <c r="D5" t="n">
-        <v>103.993752941166</v>
+        <v>638.1632681319138</v>
       </c>
       <c r="E5" t="n">
-        <v>74.25941213986519</v>
+        <v>204.388523290209</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="N5" t="n">
-        <v>674.5331706342547</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.86569471742</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762198</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720793</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.61932947385</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.61932947385</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.61932947385</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.61932947385</v>
+        <v>1958.677925847744</v>
       </c>
       <c r="V5" t="n">
-        <v>2232.589218737804</v>
+        <v>1958.677925847744</v>
       </c>
       <c r="W5" t="n">
-        <v>1827.733764148838</v>
+        <v>1957.862875299182</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.591300728148</v>
+        <v>1942.760815918896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000.305177027802</v>
+        <v>1938.515096258954</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326453</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947699</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947699</v>
+        <v>348.2978018843897</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947699</v>
+        <v>972.398585929168</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947699</v>
+        <v>972.398585929168</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947699</v>
+        <v>972.398585929168</v>
       </c>
       <c r="N6" t="n">
-        <v>431.659647297093</v>
+        <v>972.398585929168</v>
       </c>
       <c r="O6" t="n">
-        <v>431.659647297093</v>
+        <v>972.398585929168</v>
       </c>
       <c r="P6" t="n">
-        <v>1055.760431341871</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>823.9970979175606</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>651.4353864007855</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>485.5573936023082</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>315.7993898530455</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="F7" t="n">
-        <v>139.0923358148017</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947699</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541668</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068756</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748366</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.99160825575</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413394</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639176</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609518</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.61932947385</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.61932947385</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.61932947385</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2326.0420552792</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2047.609054532305</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1760.653546402735</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1488.627141989027</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1243.235387322439</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.815716636548</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703441</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537674</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
         <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>714.241271070407</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655252</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>277.7880908295409</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713193</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,16 +4986,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013251</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5041,25 +5041,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>356.7918199602176</v>
       </c>
       <c r="L11" t="n">
-        <v>852.6195887352246</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>2009.667423945775</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
         <v>4943.887948785925</v>
@@ -5077,10 +5077,10 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5244,7 +5244,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004244</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5278,10 +5278,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
         <v>306.1208027766299</v>
@@ -5308,22 +5308,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2595.191700773933</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2349.312254352388</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2070.879253605493</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.923745475924</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1511.897341062215</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5542,16 +5542,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5758,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,25 +6065,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6208,19 +6208,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6232,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6411,19 +6411,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
         <v>1371.99516675259</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6469,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3365.117609755799</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3192.555898239023</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>3026.677905440546</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2856.919901691283</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2680.21284765304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2514.621572678867</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4301.774058240973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4029.747653827265</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3784.355899160677</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y31" t="n">
-        <v>3556.936228474786</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7204,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,25 +7654,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
         <v>1107.588885023173</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>512.4570950335008</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.5472142772273</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.078041118804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684624</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986957</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>757.9381297620657</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9418,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9655,13 +9655,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>160.7958207444079</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>26.33579611060392</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>35.15749310933337</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.4463752142717</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>63.43016517136714</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="15">
@@ -26322,25 +26322,25 @@
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167497</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167495</v>
@@ -26352,10 +26352,10 @@
         <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="P2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501579</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998316</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877222</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622634</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,31 +26420,31 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>121997.5637970942</v>
+        <v>121997.5637970941</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>806.3323907825379</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907825379</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="G4" t="n">
-        <v>806.332390782538</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825511</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
@@ -26453,7 +26453,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825613</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
@@ -26472,10 +26472,10 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.2138080025</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84941.03984015528</v>
+        <v>84941.03984015522</v>
       </c>
       <c r="C6" t="n">
-        <v>195183.6764067349</v>
+        <v>195183.6764067347</v>
       </c>
       <c r="D6" t="n">
-        <v>256480.6955768558</v>
+        <v>256480.695576856</v>
       </c>
       <c r="E6" t="n">
-        <v>186949.2662991247</v>
+        <v>186926.041959742</v>
       </c>
       <c r="F6" t="n">
-        <v>369304.3755201743</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="G6" t="n">
-        <v>369304.3755201744</v>
+        <v>369281.1511807917</v>
       </c>
       <c r="H6" t="n">
-        <v>369304.3755201746</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="I6" t="n">
-        <v>369304.3755201744</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="J6" t="n">
-        <v>258289.9101751843</v>
+        <v>258266.6858358016</v>
       </c>
       <c r="K6" t="n">
-        <v>316258.5208814022</v>
+        <v>316235.2965420193</v>
       </c>
       <c r="L6" t="n">
-        <v>359912.0737935518</v>
+        <v>359888.8494541693</v>
       </c>
       <c r="M6" t="n">
-        <v>217104.2045821867</v>
+        <v>217080.9802428041</v>
       </c>
       <c r="N6" t="n">
-        <v>369304.3755201745</v>
+        <v>369281.1511807918</v>
       </c>
       <c r="O6" t="n">
-        <v>369304.3755201745</v>
+        <v>369281.1511807919</v>
       </c>
       <c r="P6" t="n">
-        <v>369304.3755201745</v>
+        <v>369281.1511807917</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684624</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1278.260503384745</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483581</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939466</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483581</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939466</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483581</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939466</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768883</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>387.5707836436601</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>80.5785825941407</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27545,19 +27545,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>159.066323984242</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>271.5848014402911</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.85097093682663</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>129.873777594787</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>49.79915050462597</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="D8" t="n">
-        <v>328.8330305885846</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.404832368463</v>
       </c>
       <c r="O5" t="n">
-        <v>512.4570950335008</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.5472142772273</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>385.078041118804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684624</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045986957</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>257.101999686301</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>757.9381297620657</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36138,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36375,13 +36375,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>301.5463146682409</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
